--- a/docs/odh/obf-Observation.xlsx
+++ b/docs/odh/obf-Observation.xlsx
@@ -397,7 +397,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
 </t>
   </si>
   <si>
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationAdministration|http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement|http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure)
 </t>
   </si>
   <si>
@@ -567,7 +567,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Group|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
@@ -598,7 +598,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DomainResource)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -712,7 +712,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -741,7 +741,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SampledData}timedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -841,7 +841,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1065,7 +1065,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1093,7 +1093,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
 </t>
   </si>
   <si>
@@ -1315,7 +1315,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media|http://hl7.org/fhir/us/odh/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/odh/obf-Observation.xlsx
+++ b/docs/odh/obf-Observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="448">
   <si>
     <t>Path</t>
   </si>
@@ -397,7 +397,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -741,7 +741,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-SampledData}timedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -876,7 +876,10 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -932,41 +935,41 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -975,11 +978,11 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -1601,7 +1604,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1624,7 +1627,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4775,9 +4778,11 @@
       <c r="W27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="X27" s="2"/>
+      <c r="X27" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4813,24 +4818,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4853,13 +4858,13 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4910,7 +4915,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4934,7 +4939,7 @@
         <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4945,7 +4950,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4974,7 +4979,7 @@
         <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>103</v>
@@ -5015,19 +5020,19 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5051,7 +5056,7 @@
         <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5062,10 +5067,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
@@ -5087,11 +5092,11 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5142,7 +5147,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5177,10 +5182,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>45</v>
@@ -5202,11 +5207,11 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5257,7 +5262,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5292,10 +5297,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>45</v>
@@ -5317,11 +5322,11 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5372,7 +5377,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5407,7 +5412,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5430,19 +5435,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5491,7 +5496,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5512,10 +5517,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5526,7 +5531,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5549,19 +5554,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5610,7 +5615,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5631,10 +5636,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5645,7 +5650,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5671,16 +5676,16 @@
         <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5708,10 +5713,10 @@
         <v>166</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5729,7 +5734,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5750,10 +5755,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5764,7 +5769,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5787,16 +5792,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5846,7 +5851,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5864,24 +5869,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5904,16 +5909,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5963,7 +5968,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5981,24 +5986,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6021,19 +6026,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6082,7 +6087,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6094,7 +6099,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6103,10 +6108,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6117,7 +6122,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6140,13 +6145,13 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6197,7 +6202,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6221,7 +6226,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6232,7 +6237,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6261,7 +6266,7 @@
         <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>103</v>
@@ -6314,7 +6319,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6338,7 +6343,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6349,11 +6354,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6375,10 +6380,10 @@
         <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>103</v>
@@ -6433,7 +6438,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6468,7 +6473,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6491,13 +6496,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6548,7 +6553,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6557,7 +6562,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>45</v>
@@ -6569,10 +6574,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6583,7 +6588,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6606,13 +6611,13 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6663,7 +6668,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6672,7 +6677,7 @@
         <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>45</v>
@@ -6684,10 +6689,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6698,7 +6703,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6724,16 +6729,16 @@
         <v>150</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6761,10 +6766,10 @@
         <v>155</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6782,7 +6787,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6800,10 +6805,10 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>260</v>
@@ -6817,7 +6822,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6843,16 +6848,16 @@
         <v>150</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6880,10 +6885,10 @@
         <v>155</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6901,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6919,10 +6924,10 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>260</v>
@@ -6936,7 +6941,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6959,17 +6964,17 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7018,7 +7023,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7042,7 +7047,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7053,7 +7058,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7076,13 +7081,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7133,7 +7138,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7154,10 +7159,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7168,7 +7173,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7191,16 +7196,16 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7250,7 +7255,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7271,10 +7276,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7285,7 +7290,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7308,16 +7313,16 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7367,7 +7372,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7388,10 +7393,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7402,7 +7407,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7425,19 +7430,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7486,7 +7491,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7498,7 +7503,7 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7507,10 +7512,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7521,7 +7526,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7544,13 +7549,13 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7601,7 +7606,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7625,7 +7630,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7636,7 +7641,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7665,7 +7670,7 @@
         <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>103</v>
@@ -7718,7 +7723,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7742,7 +7747,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7753,11 +7758,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7779,10 +7784,10 @@
         <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>103</v>
@@ -7837,7 +7842,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7872,7 +7877,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7898,13 +7903,13 @@
         <v>150</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>165</v>
@@ -7956,7 +7961,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>55</v>
@@ -7974,7 +7979,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>171</v>
@@ -7991,7 +7996,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8017,13 +8022,13 @@
         <v>231</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>235</v>
@@ -8075,7 +8080,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8093,7 +8098,7 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>238</v>
@@ -8110,7 +8115,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8136,13 +8141,13 @@
         <v>150</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>245</v>
@@ -8194,7 +8199,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8229,7 +8234,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8313,7 +8318,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8348,7 +8353,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8371,19 +8376,19 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8432,7 +8437,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8453,10 +8458,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8467,7 +8472,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8490,13 +8495,13 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8547,7 +8552,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8571,7 +8576,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8582,7 +8587,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8611,7 +8616,7 @@
         <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>103</v>
@@ -8664,7 +8669,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8688,7 +8693,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8699,11 +8704,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8725,10 +8730,10 @@
         <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>103</v>
@@ -8783,7 +8788,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8818,7 +8823,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8841,13 +8846,13 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8898,7 +8903,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8907,7 +8912,7 @@
         <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
@@ -8919,10 +8924,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8933,7 +8938,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8956,13 +8961,13 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9013,7 +9018,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9022,7 +9027,7 @@
         <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>45</v>
@@ -9034,10 +9039,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9048,7 +9053,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9074,16 +9079,16 @@
         <v>150</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9111,10 +9116,10 @@
         <v>155</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9132,7 +9137,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9150,10 +9155,10 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>260</v>
@@ -9167,7 +9172,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9193,16 +9198,16 @@
         <v>150</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9230,10 +9235,10 @@
         <v>155</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9251,7 +9256,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9269,10 +9274,10 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>260</v>
@@ -9286,7 +9291,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9309,17 +9314,17 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9368,7 +9373,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9392,7 +9397,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9403,7 +9408,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9426,13 +9431,13 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9483,7 +9488,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9504,10 +9509,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
